--- a/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
+++ b/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7755" windowWidth="20400" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebStaff_TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="WebStaff_TC" sheetId="2" r:id="rId2"/>
+    <sheet name="WebStaff_TestCases" r:id="rId1" sheetId="1"/>
+    <sheet name="WebStaff_TC" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="370">
   <si>
     <t>Step#</t>
   </si>
@@ -532,23 +533,7 @@
     <t>Confirmation tab should show 'Preview/Send Confirmation' link.</t>
   </si>
   <si>
-    <t>Click on Confirmation link and click Yes on confirmation popup.</t>
-  </si>
-  <si>
-    <t>System should show Registrant Confirmation details in the Preview window.</t>
-  </si>
-  <si>
-    <t>1. Click on Close on Confirmation Window.
-2. Click on Info tab. 
-3. Click on 'Note' link.</t>
-  </si>
-  <si>
     <t>System should open 'Note' modal window.</t>
-  </si>
-  <si>
-    <t>1. Enter Append Notes and close.
-2. Save the record and re-open. 
-3. Click on Note link.</t>
   </si>
   <si>
     <t>System should show saved "Notes" value.</t>
@@ -585,10 +570,6 @@
   </si>
   <si>
     <t>System should show selected Rule Override options.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on 'Move To Form' link.
-</t>
   </si>
   <si>
     <t>Reset Link</t>
@@ -628,9 +609,6 @@
     <t>1. Click on Yes on Cancel Confirmation window.
 2. Click Save.
 3. Re-open the same record.</t>
-  </si>
-  <si>
-    <t>System should not shows 'CANCELLED' text.</t>
   </si>
   <si>
     <r>
@@ -1232,11 +1210,41 @@
   <si>
     <t>System should take to QC group page.</t>
   </si>
+  <si>
+    <t>Click on 'Note' link.</t>
+  </si>
+  <si>
+    <t>1. Enter Append Notes and close.
+2. Save and re-open the record.
+3. Click on Note link.</t>
+  </si>
+  <si>
+    <t>Click on Show Item tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Click on 'Move To Form' link.
+</t>
+  </si>
+  <si>
+    <t>1. Click on Confirmation link and click Yes on confirmation popup.
+2.  Click on Close on Confirmation Window.</t>
+  </si>
+  <si>
+    <t>System should show Registrant Confirmation details in the Preview window and after closing the window it should back to Confirmation tab.</t>
+  </si>
+  <si>
+    <t>System should NOT show 'CANCELLED' text.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,46 +1320,66 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1413,7 +1441,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1430,10 +1458,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1597,21 +1625,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1628,7 +1656,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1680,35 +1708,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I380"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A35" ySplit="1"/>
+      <selection activeCell="C7" pane="bottomLeft" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="52.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="63" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="60.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="52.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="63.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="60.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="66.75" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1755,7 +1783,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="53.25" r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1773,7 +1801,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39" r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1789,7 +1817,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1807,7 +1835,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1823,7 +1851,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="20.25" r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1839,7 +1867,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1857,7 +1885,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="72" r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1875,7 +1903,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1891,7 +1919,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="69" r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1909,7 +1937,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.75" r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1925,7 +1953,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.75" r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1942,7 +1970,7 @@
       <c r="H13" s="2"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="60.75" r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1958,7 +1986,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1976,7 +2004,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1992,7 +2020,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2011,7 +2039,7 @@
       <c r="H17" s="2"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2030,7 +2058,7 @@
       <c r="H18" s="2"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2047,7 +2075,7 @@
       <c r="H19" s="2"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2064,7 +2092,7 @@
       <c r="H20" s="2"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="70.5" r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2083,7 +2111,7 @@
       <c r="H21" s="2"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="43.5" r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2100,7 +2128,7 @@
       <c r="H22" s="2"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39.75" r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2117,7 +2145,7 @@
       <c r="H23" s="2"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="42" r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2136,7 +2164,7 @@
       <c r="H24" s="2"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2153,7 +2181,7 @@
       <c r="H25" s="2"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.5" r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2172,7 +2200,7 @@
       <c r="H26" s="2"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.5" r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2189,7 +2217,7 @@
       <c r="H27" s="2"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.5" r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2206,7 +2234,7 @@
       <c r="H28" s="2"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.5" r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2225,7 +2253,7 @@
       <c r="H29" s="2"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21" r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2261,7 +2289,7 @@
       <c r="H31" s="2"/>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2278,7 +2306,7 @@
       <c r="H32" s="2"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2297,7 +2325,7 @@
       <c r="H33" s="2"/>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2316,7 +2344,7 @@
       <c r="H34" s="2"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="62.25" r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2333,7 +2361,7 @@
       <c r="H35" s="2"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36" r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2350,7 +2378,7 @@
       <c r="H36" s="2"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.25" r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2367,7 +2395,7 @@
       <c r="H37" s="2"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2386,7 +2414,7 @@
       <c r="H38" s="2"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2403,7 +2431,7 @@
       <c r="H39" s="2"/>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2422,7 +2450,7 @@
       <c r="H40" s="2"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2439,7 +2467,7 @@
       <c r="H41" s="2"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2458,7 +2486,7 @@
       <c r="H42" s="2"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.75" r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2475,7 +2503,7 @@
       <c r="H43" s="2"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -6192,45 +6220,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Fail">
+    <cfRule dxfId="7" operator="containsText" priority="3" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Pass">
+    <cfRule dxfId="6" operator="containsText" priority="4" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G44">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+    <cfRule dxfId="5" operator="containsText" priority="1" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",G38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule dxfId="4" operator="containsText" priority="2" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",G38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="53.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="73.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="53.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="73.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.71484375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.12109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6259,7 +6287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="53.25" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -6268,54 +6296,58 @@
         <v>113</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="53.25" r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.25" r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.75" r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
@@ -6325,25 +6357,33 @@
       <c r="E5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="50.25" r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="41.25" r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
@@ -6353,11 +6393,15 @@
       <c r="E7" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
@@ -6367,11 +6411,15 @@
       <c r="E8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8" t="s">
@@ -6383,11 +6431,15 @@
       <c r="E9" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
@@ -6397,11 +6449,15 @@
       <c r="E10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8"/>
@@ -6411,11 +6467,15 @@
       <c r="E11" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8" t="s">
@@ -6427,11 +6487,15 @@
       <c r="E12" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
@@ -6441,11 +6505,15 @@
       <c r="E13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="54.75" r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
@@ -6455,1430 +6523,1538 @@
       <c r="E14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="54.75" r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
-        <v>182</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="D19" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="45" r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="45" r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="D23" s="8" t="s">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="D26" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="8" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="8" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="45" r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="D33" s="8" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33.75" r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="8" t="s">
-        <v>301</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="D38" s="8" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="51" r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="11" t="s">
-        <v>188</v>
-      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>191</v>
+        <v>366</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="8" t="s">
-        <v>190</v>
+      <c r="C40" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="D41" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="46.5" r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="D43" s="8" t="s">
-        <v>316</v>
+        <v>191</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.75" r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39" r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="D46" s="8" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="66" r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="D49" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57" r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="54" r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="8"/>
+      <c r="C53" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="D53" s="8" t="s">
-        <v>359</v>
+        <v>213</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="8"/>
+      <c r="C56" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="D56" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33" r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="D60" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="8" t="s">
-        <v>237</v>
-      </c>
+      <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.25" r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="8"/>
+      <c r="C62" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="D62" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33" r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="8" t="s">
-        <v>252</v>
-      </c>
+      <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="47.25" r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="8"/>
+      <c r="C66" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="D66" s="8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="8" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="38.25" r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="8"/>
+      <c r="C68" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="D68" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>258</v>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8" t="s">
-        <v>259</v>
+      <c r="C70" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="8" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="65.25" r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="53.25" r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="8"/>
+      <c r="C75" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="D75" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="C76" s="8"/>
       <c r="D76" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36" r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="8" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.5" r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.5" r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="11" t="s">
-        <v>323</v>
+      <c r="C80" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="8"/>
+      <c r="C81" s="11" t="s">
+        <v>317</v>
+      </c>
       <c r="D81" s="8" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="49.5" r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="75" r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="3" t="s">
-        <v>297</v>
+      <c r="D89" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>298</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>300</v>
+      <c r="C90" s="8"/>
+      <c r="D90" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>292</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36" r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="8"/>
+      <c r="C91" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="D91" s="8" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="8" t="s">
-        <v>349</v>
-      </c>
+      <c r="C94" s="8"/>
       <c r="D94" s="8" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33" r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="D95" s="8" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="8" t="s">
-        <v>309</v>
-      </c>
+      <c r="C97" s="8"/>
       <c r="D97" s="8" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33.75" r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="8"/>
+      <c r="C98" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="D98" s="8" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="11" t="s">
-        <v>313</v>
-      </c>
+      <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C100" s="8"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="11" t="s">
+        <v>307</v>
+      </c>
       <c r="D100" s="8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="44.25" r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="8" t="s">
-        <v>361</v>
-      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36.75" r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.5" r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="C104" s="8"/>
       <c r="D104" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39" r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="D105" s="8" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="50.25" r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="8" t="s">
-        <v>346</v>
-      </c>
+      <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.25" r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="C109" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="8"/>
@@ -7888,7 +8064,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="8"/>
@@ -7898,7 +8074,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="8"/>
@@ -7908,7 +8084,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="8"/>
@@ -7918,7 +8094,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="8"/>
@@ -7928,7 +8104,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="8"/>
@@ -7938,7 +8114,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="8"/>
@@ -7948,7 +8124,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="8"/>
@@ -7958,7 +8134,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="8"/>
@@ -7968,7 +8144,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="8"/>
@@ -7978,7 +8154,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="8"/>
@@ -7988,7 +8164,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="8"/>
@@ -7998,7 +8174,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="8"/>
@@ -8008,7 +8184,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="8"/>
@@ -8018,7 +8194,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="8"/>
@@ -8028,7 +8204,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="8"/>
@@ -8038,7 +8214,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="8"/>
@@ -8048,7 +8224,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="8"/>
@@ -8058,7 +8234,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="8"/>
@@ -8068,7 +8244,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="8"/>
@@ -8078,7 +8254,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="8"/>
@@ -8088,7 +8264,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="8"/>
@@ -8098,7 +8274,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="8"/>
@@ -8108,7 +8284,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="8"/>
@@ -8118,7 +8294,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="8"/>
@@ -8128,7 +8304,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="8"/>
@@ -8138,7 +8314,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="8"/>
@@ -8148,7 +8324,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="8"/>
@@ -8158,7 +8334,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="8"/>
@@ -8168,7 +8344,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="8"/>
@@ -8178,7 +8354,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="8"/>
@@ -8188,7 +8364,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="8"/>
@@ -8198,7 +8374,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="8"/>
@@ -8208,7 +8384,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="8"/>
@@ -8218,7 +8394,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="8"/>
@@ -8228,7 +8404,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="8"/>
@@ -8238,7 +8414,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="8"/>
@@ -8248,7 +8424,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="8"/>
@@ -8258,7 +8434,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="8"/>
@@ -8268,7 +8444,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="8"/>
@@ -8278,7 +8454,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="8"/>
@@ -8288,7 +8464,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="8"/>
@@ -8298,7 +8474,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="8"/>
@@ -8308,7 +8484,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="8"/>
@@ -8318,7 +8494,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="8"/>
@@ -8328,7 +8504,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="8"/>
@@ -8338,7 +8514,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="8"/>
@@ -8348,7 +8524,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="8"/>
@@ -8358,7 +8534,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="8"/>
@@ -8368,7 +8544,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="8"/>
@@ -8378,7 +8554,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="8"/>
@@ -8388,7 +8564,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="8"/>
@@ -8398,7 +8574,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="8"/>
@@ -8408,7 +8584,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="8"/>
@@ -8418,7 +8594,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="8"/>
@@ -8428,7 +8604,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="8"/>
@@ -8438,7 +8614,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="8"/>
@@ -8448,7 +8624,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="8"/>
@@ -8458,7 +8634,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="8"/>
@@ -8468,7 +8644,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="8"/>
@@ -8478,7 +8654,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="8"/>
@@ -8488,7 +8664,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="8"/>
@@ -8498,7 +8674,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="8"/>
@@ -8508,7 +8684,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="8"/>
@@ -8518,7 +8694,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="8"/>
@@ -8528,7 +8704,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="8"/>
@@ -8538,7 +8714,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="8"/>
@@ -8548,7 +8724,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="8"/>
@@ -8558,7 +8734,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="8"/>
@@ -8568,7 +8744,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="8"/>
@@ -8578,7 +8754,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="8"/>
@@ -8588,7 +8764,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="8"/>
@@ -8598,7 +8774,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="8"/>
@@ -8608,7 +8784,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="8"/>
@@ -8618,7 +8794,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="8"/>
@@ -8628,7 +8804,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="8"/>
@@ -8638,7 +8814,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="8"/>
@@ -8648,7 +8824,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="8"/>
@@ -8658,7 +8834,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="8"/>
@@ -8668,7 +8844,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="8"/>
@@ -8678,7 +8854,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="8"/>
@@ -8688,7 +8864,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="8"/>
@@ -8698,7 +8874,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="8"/>
@@ -8708,7 +8884,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="8"/>
@@ -8718,7 +8894,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="8"/>
@@ -8728,7 +8904,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="8"/>
@@ -8738,7 +8914,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="8"/>
@@ -8748,7 +8924,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="8"/>
@@ -8758,7 +8934,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="8"/>
@@ -8768,7 +8944,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="8"/>
@@ -8778,7 +8954,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="8"/>
@@ -8788,7 +8964,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="8"/>
@@ -8798,16 +8974,34 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
+    <row customHeight="1" ht="30" r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Pass">
+  <conditionalFormatting sqref="G1:G20 G23:G1048576">
+    <cfRule dxfId="3" operator="containsText" priority="3" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Fail">
+    <cfRule dxfId="2" operator="containsText" priority="4" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <conditionalFormatting sqref="G21:G22">
+    <cfRule dxfId="1" operator="containsText" priority="1" text="Pass" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Pass",G21)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="containsText" priority="2" text="Fail" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Fail",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
+++ b/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="370">
   <si>
     <t>Step#</t>
   </si>
@@ -6527,7 +6527,7 @@
         <v>357</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -6545,7 +6545,7 @@
         <v>357</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -6565,7 +6565,7 @@
         <v>357</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -6585,7 +6585,7 @@
         <v>357</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -6603,7 +6603,7 @@
         <v>357</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -6623,7 +6623,7 @@
         <v>357</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -6641,7 +6641,7 @@
         <v>357</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -6661,7 +6661,7 @@
         <v>357</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -6679,7 +6679,7 @@
         <v>357</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -6699,7 +6699,7 @@
         <v>357</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -6717,7 +6717,7 @@
         <v>357</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -6737,7 +6737,7 @@
         <v>357</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -6757,7 +6757,7 @@
         <v>357</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -6775,7 +6775,7 @@
         <v>357</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -6795,7 +6795,7 @@
         <v>357</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -6815,7 +6815,7 @@
         <v>357</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -6833,7 +6833,7 @@
         <v>357</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -6853,7 +6853,7 @@
         <v>357</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -6871,7 +6871,7 @@
         <v>357</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -6891,7 +6891,7 @@
         <v>357</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -6911,7 +6911,7 @@
         <v>357</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -6931,7 +6931,7 @@
         <v>357</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -6949,7 +6949,7 @@
         <v>357</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -6967,7 +6967,7 @@
         <v>357</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -6987,7 +6987,7 @@
         <v>357</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -7005,7 +7005,7 @@
         <v>357</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -7021,8 +7021,12 @@
       <c r="E40" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H40" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -7037,8 +7041,12 @@
       <c r="E41" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H41" s="2"/>
     </row>
     <row customHeight="1" ht="46.5" r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7051,8 +7059,12 @@
       <c r="E42" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H42" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -7067,8 +7079,12 @@
       <c r="E43" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H43" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -7081,8 +7097,12 @@
       <c r="E44" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H44" s="2"/>
     </row>
     <row customHeight="1" ht="36.75" r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -7095,8 +7115,12 @@
       <c r="E45" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H45" s="2"/>
     </row>
     <row customHeight="1" ht="39" r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7111,8 +7135,12 @@
       <c r="E46" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H46" s="2"/>
     </row>
     <row customHeight="1" ht="66" r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -7125,8 +7153,12 @@
       <c r="E47" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H47" s="2"/>
     </row>
     <row customHeight="1" ht="34.5" r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7141,8 +7173,12 @@
       <c r="E48" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H48" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -7157,8 +7193,12 @@
       <c r="E49" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H49" s="2"/>
     </row>
     <row customHeight="1" ht="57" r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -7171,8 +7211,12 @@
       <c r="E50" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H50" s="2"/>
     </row>
     <row customHeight="1" ht="54" r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -7185,8 +7229,12 @@
       <c r="E51" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H51" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -7199,8 +7247,12 @@
       <c r="E52" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H52" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -7215,8 +7267,12 @@
       <c r="E53" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="H53" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="54" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
+++ b/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulandasamyc\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{BCE85B65-1DF4-4966-831E-BEE955238551}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7755" windowWidth="20400" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" windowHeight="7725" windowWidth="20400" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="WebStaff_TestCases" r:id="rId1" sheetId="1"/>
     <sheet name="WebStaff_TC" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="368">
   <si>
     <t>Step#</t>
   </si>
@@ -665,9 +670,6 @@
     <t>System should show 'Find &amp; Import Registrant' modal window.</t>
   </si>
   <si>
-    <t>Based on search, system should filter the registrant with 'Select' link.</t>
-  </si>
-  <si>
     <t>1. Click on 'Select' button.
 2. Click on 'Yes Continue' link on Confirmation window.</t>
   </si>
@@ -752,12 +754,6 @@
     <t>System should take to Find Rooms page and display Hotel Search related fields.</t>
   </si>
   <si>
-    <t>Click on 'View Inventory' link.</t>
-  </si>
-  <si>
-    <t>System should show all Hotels Inventory details.</t>
-  </si>
-  <si>
     <t>Based Arrival and Departure dates, Hotel result should display list of Hotels.</t>
   </si>
   <si>
@@ -789,9 +785,6 @@
   </si>
   <si>
     <t>Lead Occupant</t>
-  </si>
-  <si>
-    <t>Add another occupant and Save.</t>
   </si>
   <si>
     <t>Enter mandatory fields and Save as Lead Occupant.</t>
@@ -814,10 +807,6 @@
     <t>Click on Change Rooms tab.</t>
   </si>
   <si>
-    <t>1. Click on Changes Dates tab..
-2. Without changing Dates, click on Save Changes.</t>
-  </si>
-  <si>
     <t>Change Room modal window should display and show available rooms with 'Select' link.</t>
   </si>
   <si>
@@ -852,15 +841,6 @@
     <t>Release Room</t>
   </si>
   <si>
-    <t>Release Room tab should display.</t>
-  </si>
-  <si>
-    <t>Open Hotel Held state room accordion.</t>
-  </si>
-  <si>
-    <t>Click on 'Release Room' link.</t>
-  </si>
-  <si>
     <t>Hotel CONF#</t>
   </si>
   <si>
@@ -871,44 +851,10 @@
     <t>System should show success message as 'Hotel Confirmation Number: successfully updated.' and entered number should be updated in the field.</t>
   </si>
   <si>
-    <t>1.  Click on edit icon in Nights.
-2. Change Departure Date and Click  on Save Changes.</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>1. Click on Rate edit icon.
-2.  Enter 'galaxy' password.
-3. Select rate plan Radio button and Save.</t>
-  </si>
-  <si>
     <t>Selected Rate should update in the Occupant details page and show success message</t>
   </si>
   <si>
     <t>Deposit</t>
-  </si>
-  <si>
-    <t>Click on Deposit edit icon.</t>
-  </si>
-  <si>
-    <t>Edit deposit window should open.</t>
-  </si>
-  <si>
-    <t>Enter Deposit Amount and Save.</t>
-  </si>
-  <si>
-    <t>Rewards</t>
-  </si>
-  <si>
-    <t>1. Click on Rewards edit icon.
-2. Enter Rewards number and Save.</t>
-  </si>
-  <si>
-    <t>Rewards Number should update under the Label.</t>
   </si>
   <si>
     <t>Special Requests.</t>
@@ -1056,10 +1002,6 @@
     <t>System should show success message as 'Room has been successfully released.' and the hotel should remove from the list.</t>
   </si>
   <si>
-    <t>If Room is available it should show message as 'The room is available' and Number of nights should update.
-If room is NOT available it should show message as 'The requested change is not available.' and number Night should show same.</t>
-  </si>
-  <si>
     <t>Deposit label should change to 'Manual' and update the amount.</t>
   </si>
   <si>
@@ -1151,10 +1093,6 @@
     <t>Group Assignment</t>
   </si>
   <si>
-    <t>1. Under Group Assignment.
-2. Click on Select dropdown.</t>
-  </si>
-  <si>
     <t>System should open and show Registrant Group Assigment modal window.</t>
   </si>
   <si>
@@ -1182,9 +1120,6 @@
 3. Click on Save.</t>
   </si>
   <si>
-    <t>Edit FN &amp; LN and click on Save on bottom of the page.</t>
-  </si>
-  <si>
     <t>Add Exhibitor company in SHowMan.</t>
   </si>
   <si>
@@ -1235,6 +1170,71 @@
   </si>
   <si>
     <t>System should NOT show 'CANCELLED' text.</t>
+  </si>
+  <si>
+    <t>Based on search, system should filter the registrant and show with 'Select' link.</t>
+  </si>
+  <si>
+    <t>1. Click on 'View Inventory' link.
+2. Close the Inventory window.</t>
+  </si>
+  <si>
+    <t>System should show all Hotels Inventory details and return back to Hotel Search page after close.</t>
+  </si>
+  <si>
+    <t>Add another occupant by Selecting from the list and Save.</t>
+  </si>
+  <si>
+    <t>Change Lead</t>
+  </si>
+  <si>
+    <t>1. Click on Occupant radio button.
+2. Click Yes.</t>
+  </si>
+  <si>
+    <t>System should change Lead Occupant and confirm with message.</t>
+  </si>
+  <si>
+    <t>Edit Occupant</t>
+  </si>
+  <si>
+    <t>1. Click on edit icon.
+2. Change First Name and click Save.</t>
+  </si>
+  <si>
+    <t>Updated name should display in Occupant page.</t>
+  </si>
+  <si>
+    <t>Delete Occpuant.</t>
+  </si>
+  <si>
+    <t>Click on Delete  Occupant 'x' link.</t>
+  </si>
+  <si>
+    <t>System should show warining message as ' Cannot delete this lead occupant. There are no other occupants in this reservation to assume the lead role' message.</t>
+  </si>
+  <si>
+    <t>1. Click on Change Dates tab..
+2. Without changing Dates, click on Save Changes.</t>
+  </si>
+  <si>
+    <t>Click on 'Send Email' link.</t>
+  </si>
+  <si>
+    <t>System should display ' Confirmation Letter has been sent'.</t>
+  </si>
+  <si>
+    <t>1. Click on Summary Tab. 
+2. Under Group Assignment.
+3. Click on Select dropdown.</t>
+  </si>
+  <si>
+    <t>1. Open Hotel Held state room accordion.
+2. Click on 'Release Room' link.</t>
+  </si>
+  <si>
+    <t>1. Click on Deposit edit icon.
+2. Enter Deposit Amount and Save.</t>
   </si>
   <si>
     <t>Fail</t>
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1356,7 +1356,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -1715,12 +1715,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J380"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A35" ySplit="1"/>
-      <selection activeCell="C7" pane="bottomLeft" sqref="C7"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A62" ySplit="1"/>
+      <selection activeCell="D41" pane="bottomLeft" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6241,18 +6241,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="3" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="53.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="56.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="3" width="73.140625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.71484375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.12109375" collapsed="true"/>
@@ -6296,16 +6296,16 @@
         <v>113</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6314,16 +6314,16 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -6334,16 +6334,16 @@
         <v>181</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -6358,10 +6358,10 @@
         <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -6370,16 +6370,16 @@
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -6394,10 +6394,10 @@
         <v>117</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -6412,10 +6412,10 @@
         <v>119</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -6432,10 +6432,10 @@
         <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -6450,10 +6450,10 @@
         <v>123</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -6468,10 +6468,10 @@
         <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -6488,10 +6488,10 @@
         <v>136</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -6506,10 +6506,10 @@
         <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -6524,10 +6524,10 @@
         <v>139</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -6536,16 +6536,16 @@
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -6559,13 +6559,13 @@
         <v>176</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -6582,10 +6582,10 @@
         <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -6600,10 +6600,10 @@
         <v>131</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -6620,10 +6620,10 @@
         <v>140</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -6638,10 +6638,10 @@
         <v>142</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -6652,16 +6652,16 @@
         <v>44</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -6670,16 +6670,16 @@
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -6690,16 +6690,16 @@
         <v>159</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -6714,10 +6714,10 @@
         <v>93</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -6734,10 +6734,10 @@
         <v>163</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -6754,10 +6754,10 @@
         <v>166</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -6772,10 +6772,10 @@
         <v>168</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -6792,10 +6792,10 @@
         <v>171</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -6812,10 +6812,10 @@
         <v>173</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -6830,10 +6830,10 @@
         <v>174</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -6841,7 +6841,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="8" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>178</v>
@@ -6850,10 +6850,10 @@
         <v>179</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -6865,13 +6865,13 @@
         <v>180</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -6888,10 +6888,10 @@
         <v>148</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -6905,13 +6905,13 @@
         <v>145</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -6928,10 +6928,10 @@
         <v>149</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -6946,10 +6946,10 @@
         <v>151</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -6964,10 +6964,10 @@
         <v>153</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -6984,10 +6984,10 @@
         <v>156</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -6996,16 +6996,16 @@
       <c r="B39" s="2"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -7022,10 +7022,10 @@
         <v>183</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -7042,10 +7042,10 @@
         <v>187</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -7060,14 +7060,14 @@
         <v>189</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8" t="s">
@@ -7080,10 +7080,10 @@
         <v>192</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -7092,16 +7092,16 @@
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>193</v>
+        <v>348</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -7110,16 +7110,16 @@
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -7127,19 +7127,19 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -7148,16 +7148,16 @@
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -7165,128 +7165,132 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="8" t="s">
-        <v>203</v>
-      </c>
+      <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>204</v>
+        <v>362</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>205</v>
+        <v>363</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row customHeight="1" ht="57" r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="D50" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row customHeight="1" ht="54" r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57" r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="54" r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="8"/>
+      <c r="C54" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="D54" s="8" t="s">
-        <v>353</v>
+        <v>212</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H54" s="2"/>
     </row>
     <row customHeight="1" ht="48" r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -7294,43 +7298,55 @@
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H55" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H56" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H57" s="2"/>
     </row>
     <row customHeight="1" ht="33" r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -7338,45 +7354,57 @@
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H58" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="E59" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H59" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H60" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -7384,304 +7412,378 @@
       <c r="B61" s="2"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H61" s="2"/>
     </row>
     <row customHeight="1" ht="35.25" r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H62" s="2"/>
     </row>
-    <row customHeight="1" ht="33" r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33.75" r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="8"/>
+      <c r="C63" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="D63" s="8" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H63" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33" r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H64" s="2"/>
     </row>
-    <row customHeight="1" ht="47.25" r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33" r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="8" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H65" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33" r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="8" t="s">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H66" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="D67" s="8" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H67" s="2"/>
     </row>
-    <row customHeight="1" ht="38.25" r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="47.25" r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>243</v>
+        <v>361</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H68" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="8"/>
+      <c r="C69" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="D69" s="8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H69" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>252</v>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H70" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="38.25" r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="8"/>
+      <c r="C71" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="D71" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H71" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="8" t="s">
-        <v>254</v>
-      </c>
+      <c r="C72" s="8"/>
       <c r="D72" s="8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H72" s="2"/>
     </row>
-    <row customHeight="1" ht="65.25" r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H73" s="2"/>
     </row>
-    <row customHeight="1" ht="53.25" r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="8" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H74" s="2"/>
     </row>
     <row customHeight="1" ht="30" r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="8" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H75" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.5" r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="8"/>
+      <c r="C76" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="D76" s="8" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H76" s="2"/>
     </row>
-    <row customHeight="1" ht="36" r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.5" r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H77" s="2"/>
     </row>
-    <row customHeight="1" ht="37.5" r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H78" s="2"/>
     </row>
-    <row customHeight="1" ht="40.5" r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="8" t="s">
-        <v>271</v>
+      <c r="C79" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row customHeight="1" ht="34.5" r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="C80" s="8"/>
       <c r="D80" s="8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -7690,14 +7792,12 @@
     <row customHeight="1" ht="30" r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="11" t="s">
-        <v>317</v>
-      </c>
+      <c r="C81" s="8"/>
       <c r="D81" s="8" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -7708,24 +7808,24 @@
       <c r="B82" s="2"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="49.5" r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -7736,24 +7836,24 @@
       <c r="B84" s="2"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row customHeight="1" ht="49.5" r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -7764,24 +7864,24 @@
       <c r="B86" s="2"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row ht="60" r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -7791,25 +7891,26 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="8" t="s">
-        <v>283</v>
+      <c r="D88" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>274</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row ht="75" r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="36" r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="8"/>
+      <c r="C89" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D89" s="8" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -7819,26 +7920,25 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="3" t="s">
-        <v>291</v>
+      <c r="D90" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>292</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row customHeight="1" ht="36" r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="8" t="s">
-        <v>293</v>
-      </c>
+      <c r="C91" s="8"/>
       <c r="D91" s="8" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -7849,24 +7949,26 @@
       <c r="B92" s="2"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="54" r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="8"/>
+      <c r="C93" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="D93" s="8" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -7877,70 +7979,70 @@
       <c r="B94" s="2"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row customHeight="1" ht="33" r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="8" t="s">
-        <v>343</v>
-      </c>
+      <c r="C95" s="8"/>
       <c r="D95" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="33.75" r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="8"/>
+      <c r="C96" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="D96" s="8" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row customHeight="1" ht="32.25" r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row customHeight="1" ht="33.75" r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -7948,164 +8050,154 @@
     </row>
     <row customHeight="1" ht="30" r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="44.25" r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="11" t="s">
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="45" r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="8" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row customHeight="1" ht="44.25" r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.5" r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row customHeight="1" ht="36.75" r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39" r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C103" s="8"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="D103" s="8" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row customHeight="1" ht="37.5" r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row customHeight="1" ht="39" r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="8" t="s">
-        <v>327</v>
-      </c>
+      <c r="C105" s="8"/>
       <c r="D105" s="8" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row customHeight="1" ht="34.5" r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="50.25" r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row customHeight="1" ht="30" r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.25" r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="8"/>
+      <c r="C107" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="D107" s="8" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row customHeight="1" ht="50.25" r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>335</v>
-      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row customHeight="1" ht="35.25" r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -9019,26 +9111,6 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
-    </row>
-    <row customHeight="1" ht="30" r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-    </row>
-    <row customHeight="1" ht="30" r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G20 G23:G1048576">
@@ -9058,6 +9130,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" verticalDpi="4294967295"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId1" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
+++ b/src/main/resources/WebStaff TC ExcelSheet/Automation Test test cases for WebStaff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\QA\R&amp;DQA\Selenium\Chandra Workspace\WebStaff\src\main\resources\WebStaff TC ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{13C15CAF-5935-40D8-A4ED-C6AAE633BA06}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2BF332B9-5FA6-4A6B-A99A-9CAF33E53ACF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
     <workbookView windowHeight="7725" windowWidth="20400" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="273">
   <si>
     <t>Step#</t>
   </si>
@@ -781,12 +781,6 @@
     <t>Add Attendee Group in ShowMan.</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>kulandasamyc</t>
-  </si>
-  <si>
     <t>System should and take to Search Page by default.</t>
   </si>
   <si>
@@ -920,7 +914,13 @@
     <t xml:space="preserve">System should show confirmation message as 'Confirmations will be sent to individuals with the send flag checkedSystem should remove the registrant Group and show blank values.' </t>
   </si>
   <si>
-    <t>Fail</t>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>kulandasamyc</t>
   </si>
 </sst>
 </file>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,16 +1404,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1422,16 +1422,16 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1448,10 +1448,10 @@
         <v>228</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1466,10 +1466,10 @@
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1484,10 +1484,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1502,10 +1502,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1520,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1540,10 +1540,10 @@
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1576,10 +1576,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1596,10 +1596,10 @@
         <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1614,10 +1614,10 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1632,10 +1632,10 @@
         <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1644,16 +1644,16 @@
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>188</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1670,10 +1670,10 @@
         <v>188</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1690,10 +1690,10 @@
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1708,10 +1708,10 @@
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1728,10 +1728,10 @@
         <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1746,10 +1746,10 @@
         <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1760,16 +1760,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1778,16 +1778,16 @@
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1798,16 +1798,16 @@
         <v>63</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1822,10 +1822,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1842,10 +1842,10 @@
         <v>67</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1862,10 +1862,10 @@
         <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1880,10 +1880,10 @@
         <v>72</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1900,10 +1900,10 @@
         <v>75</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1920,10 +1920,10 @@
         <v>77</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1938,10 +1938,10 @@
         <v>78</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1958,10 +1958,10 @@
         <v>83</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1973,13 +1973,13 @@
         <v>84</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1996,10 +1996,10 @@
         <v>52</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -2016,10 +2016,10 @@
         <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -2036,10 +2036,10 @@
         <v>53</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>55</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -2072,10 +2072,10 @@
         <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -2092,10 +2092,10 @@
         <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -2104,16 +2104,16 @@
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2130,10 +2130,10 @@
         <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -2150,10 +2150,10 @@
         <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -2168,10 +2168,10 @@
         <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -2188,10 +2188,10 @@
         <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -2203,13 +2203,13 @@
         <v>190</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -2224,10 +2224,10 @@
         <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -2244,10 +2244,10 @@
         <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -2262,10 +2262,10 @@
         <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -2282,10 +2282,10 @@
         <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -2294,16 +2294,16 @@
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -2320,10 +2320,10 @@
         <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -2338,10 +2338,10 @@
         <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -2356,10 +2356,10 @@
         <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2374,10 +2374,10 @@
         <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -2394,10 +2394,10 @@
         <v>198</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -2412,10 +2412,10 @@
         <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -2432,10 +2432,10 @@
         <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -2444,16 +2444,16 @@
       <c r="B57" s="2"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -2468,10 +2468,10 @@
         <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -2488,10 +2488,10 @@
         <v>124</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -2508,10 +2508,10 @@
         <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -2526,10 +2526,10 @@
         <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -2546,10 +2546,10 @@
         <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -2557,19 +2557,19 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H63" s="2"/>
     </row>
@@ -2578,16 +2578,16 @@
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H64" s="2"/>
     </row>
@@ -2595,19 +2595,19 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -2615,19 +2615,19 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H66" s="2"/>
     </row>
@@ -2644,10 +2644,10 @@
         <v>136</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -2658,16 +2658,16 @@
         <v>146</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H68" s="2"/>
     </row>
@@ -2684,10 +2684,10 @@
         <v>139</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -2702,10 +2702,10 @@
         <v>141</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -2722,10 +2722,10 @@
         <v>143</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -2740,10 +2740,10 @@
         <v>153</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -2754,16 +2754,16 @@
         <v>149</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>152</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H74" s="2"/>
     </row>
@@ -2794,16 +2794,16 @@
         <v>154</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>194</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H75" s="2"/>
     </row>
@@ -2820,10 +2820,10 @@
         <v>195</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -2840,10 +2840,10 @@
         <v>159</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -2860,10 +2860,10 @@
         <v>162</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -2880,10 +2880,10 @@
         <v>164</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -2898,10 +2898,10 @@
         <v>166</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -2916,10 +2916,10 @@
         <v>168</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H81" s="2"/>
     </row>
@@ -2934,10 +2934,10 @@
         <v>197</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H82" s="2"/>
     </row>
@@ -2949,13 +2949,13 @@
         <v>170</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H83" s="2"/>
     </row>
@@ -2967,13 +2967,13 @@
         <v>173</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H84" s="2"/>
     </row>
@@ -2988,10 +2988,10 @@
         <v>172</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -3000,16 +3000,16 @@
       <c r="B86" s="2"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>197</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H86" s="2"/>
     </row>
@@ -3018,16 +3018,16 @@
       <c r="B87" s="2"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H87" s="2"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>177</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H88" s="2"/>
     </row>
@@ -3062,10 +3062,10 @@
         <v>178</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H89" s="2"/>
     </row>
@@ -3080,10 +3080,10 @@
         <v>181</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -3098,10 +3098,10 @@
         <v>183</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H91" s="2"/>
     </row>
@@ -3112,16 +3112,16 @@
         <v>221</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>222</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -3136,10 +3136,10 @@
         <v>224</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -3154,10 +3154,10 @@
         <v>226</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -3171,13 +3171,13 @@
         <v>185</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H95" s="2"/>
     </row>
@@ -3192,10 +3192,10 @@
         <v>186</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H96" s="2"/>
     </row>
@@ -3212,10 +3212,10 @@
         <v>200</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H97" s="2"/>
     </row>
@@ -3225,7 +3225,7 @@
         <v>230</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>201</v>
@@ -3234,10 +3234,10 @@
         <v>202</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H98" s="2"/>
     </row>
@@ -3252,10 +3252,10 @@
         <v>204</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H99" s="2"/>
     </row>
@@ -3265,7 +3265,7 @@
         <v>231</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>214</v>
@@ -3274,10 +3274,10 @@
         <v>215</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H100" s="2"/>
     </row>
@@ -3292,10 +3292,10 @@
         <v>217</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H101" s="2"/>
     </row>
@@ -3312,10 +3312,10 @@
         <v>207</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -3330,10 +3330,10 @@
         <v>209</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H103" s="2"/>
     </row>
@@ -3348,10 +3348,10 @@
         <v>211</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H104" s="2"/>
     </row>
@@ -3366,10 +3366,10 @@
         <v>213</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H105" s="2"/>
     </row>
@@ -3386,10 +3386,10 @@
         <v>220</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H106" s="2"/>
     </row>
